--- a/New shortcut.lnk.xlsx
+++ b/New shortcut.lnk.xlsx
@@ -19,109 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
-  <si>
-    <t>شماره</t>
-  </si>
-  <si>
-    <t>بخش</t>
-  </si>
-  <si>
-    <t>تعداد / مقدار</t>
-  </si>
-  <si>
-    <t>قیمت واحد (دالر)</t>
-  </si>
-  <si>
-    <t>مجموع هزینه (دالر)</t>
-  </si>
-  <si>
-    <t>تجهیزات</t>
-  </si>
-  <si>
-    <t>نرم‌افزار</t>
-  </si>
-  <si>
-    <t>منابع انسانی</t>
-  </si>
-  <si>
-    <t>ترانسپورت</t>
-  </si>
-  <si>
-    <t>دسترسی فیزیکی</t>
-  </si>
-  <si>
-    <t>فناوری نوین</t>
-  </si>
-  <si>
-    <t>لپ‌تاپ سبک برای افراد دارای ناتوانی حرکتی</t>
-  </si>
-  <si>
-    <t>تلفن‌های هوشمند برای دسترسی آسان</t>
-  </si>
-  <si>
-    <t>تبلت‌های تعاملی برای آموزش</t>
-  </si>
-  <si>
-    <t>نرم‌افزار صفحه‌خوان (Screen Reader)</t>
-  </si>
-  <si>
-    <t>اپلیکیشن آموزش آنلاین مخصوص معلولین</t>
-  </si>
-  <si>
-    <t>لایسنس رسمی ویندوز</t>
-  </si>
-  <si>
-    <t>نرم‌افزار Microsoft Office</t>
-  </si>
-  <si>
-    <t>کارمندان پشتیبانی تخنیکی</t>
-  </si>
-  <si>
-    <t>مربیان آموزش مجازی</t>
-  </si>
-  <si>
-    <t>مشاوران متخصص توان‌بخشی</t>
-  </si>
-  <si>
-    <t>وسایل نقلیه مجهز برای افراد دارای معلولیت</t>
-  </si>
-  <si>
-    <t>مصارف سوخت و معاش راننده‌ها</t>
-  </si>
-  <si>
-    <t>ساخت رمپ برای صندلی‌چرخ‌دار</t>
-  </si>
-  <si>
-    <t>نصب آسانسور مخصوص معلولین</t>
-  </si>
-  <si>
-    <t>علایم راهنمای بریل برای نابینایان</t>
-  </si>
-  <si>
-    <t>چت‌بات هوشمند برای پاسخ‌گویی آنلاین</t>
-  </si>
-  <si>
-    <t>سیستم تشخیص گفتار برای دسترسی سریع</t>
-  </si>
-  <si>
-    <t>دستگاه‌های خوانش بریل هوشمند</t>
-  </si>
-  <si>
-    <t>نرم‌افزار ترجمه زبان اشاره به متن</t>
-  </si>
-  <si>
-    <t>مجموع کل بودجه مصرف‌شده</t>
-  </si>
-  <si>
-    <t>نام تجهزات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ویلچر برای معلولین </t>
-  </si>
-  <si>
-    <t>ماهانه کمک برای معلولین</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>risks</t>
   </si>
@@ -159,10 +57,112 @@
     <t>implementer s profuit - 3000000 -30%</t>
   </si>
   <si>
-    <t>باقی مانده</t>
-  </si>
-  <si>
-    <t>پروژه درباره معلولین که پول 20000000 در نظر گرفته شده</t>
+    <t>Braille guide signs for the visually impaired</t>
+  </si>
+  <si>
+    <t>lighweight clothing for indivduals with mobility imparments</t>
+  </si>
+  <si>
+    <t>smartphones with easy accessibility</t>
+  </si>
+  <si>
+    <t>tablets with educational apps</t>
+  </si>
+  <si>
+    <t>screen reader sofware</t>
+  </si>
+  <si>
+    <t>esucational apps for  people with disabilities</t>
+  </si>
+  <si>
+    <t>microsoft software</t>
+  </si>
+  <si>
+    <t>microsoft office software</t>
+  </si>
+  <si>
+    <t>virtual learning instructors</t>
+  </si>
+  <si>
+    <t>technical ldentification staff</t>
+  </si>
+  <si>
+    <t>rehabilitation specialist consultans</t>
+  </si>
+  <si>
+    <t>special mobility devices for people with disabilities</t>
+  </si>
+  <si>
+    <t>fuel and driver field expenses</t>
+  </si>
+  <si>
+    <t>special physical accessibility for the disabled</t>
+  </si>
+  <si>
+    <t>smart braille readind devices</t>
+  </si>
+  <si>
+    <t>online sign-to-text translation software</t>
+  </si>
+  <si>
+    <t>vouchesr for pepole with disabilities</t>
+  </si>
+  <si>
+    <t>fast translation systems</t>
+  </si>
+  <si>
+    <t>monthly assistance for pepole with disabilities</t>
+  </si>
+  <si>
+    <t>remaining money</t>
+  </si>
+  <si>
+    <t>total budget money spent</t>
+  </si>
+  <si>
+    <t>price             cost collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         quantity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity       price                        </t>
+  </si>
+  <si>
+    <t>equipment name</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>human resources</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>physical access</t>
+  </si>
+  <si>
+    <t>enw technology</t>
+  </si>
+  <si>
+    <t>project on the disabled whivh has been allocated $5000000</t>
+  </si>
+  <si>
+    <t>maneger</t>
+  </si>
+  <si>
+    <t>government tax</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -255,6 +261,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,27 +581,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -603,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -615,7 +623,7 @@
         <v>1500</v>
       </c>
       <c r="F3" s="2">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -625,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>150</v>
@@ -637,7 +645,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="2">
-        <v>150000</v>
+        <v>142500</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -647,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>300</v>
@@ -659,7 +667,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="2">
-        <v>150000</v>
+        <v>72000</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -669,10 +677,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
@@ -681,7 +689,7 @@
         <v>800</v>
       </c>
       <c r="F6" s="2">
-        <v>80000</v>
+        <v>93500</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -691,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>200</v>
@@ -703,7 +711,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="2">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -713,10 +721,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>300</v>
@@ -725,7 +733,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="2">
-        <v>30000</v>
+        <v>64000</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -735,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>250</v>
@@ -747,7 +755,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="2">
-        <v>30000</v>
+        <v>32500</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -757,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>250</v>
@@ -769,7 +777,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="2">
-        <v>37500</v>
+        <v>40000</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -779,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -791,7 +799,7 @@
         <v>12000</v>
       </c>
       <c r="F11" s="2">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -801,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -813,7 +821,7 @@
         <v>10000</v>
       </c>
       <c r="F12" s="2">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -823,10 +831,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -835,7 +843,7 @@
         <v>8000</v>
       </c>
       <c r="F13" s="2">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -845,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -857,7 +865,7 @@
         <v>25000</v>
       </c>
       <c r="F14" s="2">
-        <v>75000</v>
+        <v>112000</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -867,10 +875,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
@@ -879,7 +887,7 @@
         <v>5000</v>
       </c>
       <c r="F15" s="2">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -889,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
@@ -901,7 +909,7 @@
         <v>2000</v>
       </c>
       <c r="F16" s="2">
-        <v>20000</v>
+        <v>51000</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -911,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -923,7 +931,7 @@
         <v>15000</v>
       </c>
       <c r="F17" s="2">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -933,10 +941,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
         <v>100</v>
@@ -945,7 +953,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="2">
-        <v>3000</v>
+        <v>38000</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -955,10 +963,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -967,7 +975,7 @@
         <v>20000</v>
       </c>
       <c r="F19" s="2">
-        <v>20000</v>
+        <v>44000</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -977,10 +985,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -989,7 +997,7 @@
         <v>10000</v>
       </c>
       <c r="F20" s="2">
-        <v>30000</v>
+        <v>13750</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -999,10 +1007,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -1011,7 +1019,7 @@
         <v>500</v>
       </c>
       <c r="F21" s="2">
-        <v>10000</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1021,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>100</v>
@@ -1033,7 +1041,7 @@
         <v>150</v>
       </c>
       <c r="F22" s="2">
-        <v>15000</v>
+        <v>460000</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1044,7 +1052,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>200</v>
@@ -1064,7 +1072,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>200</v>
@@ -1073,34 +1081,44 @@
         <v>2000</v>
       </c>
       <c r="F24" s="2">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>250000</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2">
-        <v>12666500</v>
+        <v>2243450</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1109,16 +1127,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -1127,24 +1145,39 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>500000</v>
+        <v>112172</v>
       </c>
       <c r="E30" s="3">
         <v>0.05</v>
       </c>
       <c r="F30" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="7">
+        <v>117781</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1154,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -1172,13 +1205,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>3000000</v>
+        <v>1655688</v>
       </c>
       <c r="E38" s="3">
         <v>0.3</v>
@@ -1190,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5">
-        <v>3833500</v>
+        <v>700000</v>
       </c>
       <c r="E42" s="5"/>
     </row>
